--- a/Assignment2RubricScore.xlsx
+++ b/Assignment2RubricScore.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s516583\Google Drive\assignments\TAWork\StudentAssignmentRepositoriesMachineLearning\Assignment2\Programming Assignment 2 Machine Learning-02-04-2019-09-13-45\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s516583\Google Drive\assignments\MachineLearning\MyAssignments\GitHubRepoForTurningIn\AlleeMachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,6 +411,9 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
       <c r="D6">
         <v>10</v>
       </c>
@@ -419,6 +422,9 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
       <c r="D7">
         <v>10</v>
       </c>
@@ -427,6 +433,9 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
       <c r="D8">
         <v>10</v>
       </c>
@@ -435,6 +444,9 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
       <c r="D9">
         <v>10</v>
       </c>
@@ -443,12 +455,18 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
       <c r="D10">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
@@ -459,6 +477,9 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
       <c r="D12">
         <v>10</v>
       </c>
@@ -467,6 +488,9 @@
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
       <c r="D13">
         <v>5</v>
       </c>
@@ -475,6 +499,9 @@
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
       <c r="D14">
         <v>4</v>
       </c>
@@ -485,7 +512,7 @@
       </c>
       <c r="C15">
         <f>SUM(C12+C11+C6+C7+C8+C10+C9+C13+C14)</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D15">
         <f>SUM(D6+D7+D8+D9+D10+D11+D12+D13)</f>
@@ -493,7 +520,7 @@
       </c>
       <c r="E15">
         <f>C15/D15</f>
-        <v>0</v>
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment2RubricScore.xlsx
+++ b/Assignment2RubricScore.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s516583\Google Drive\assignments\TAWork\StudentAssignmentRepositoriesMachineLearning\Assignment2\Programming Assignment 2 Machine Learning-02-04-2019-09-13-45\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21060" windowHeight="12700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>points earned</t>
   </si>
@@ -60,12 +58,15 @@
   </si>
   <si>
     <t>part 6:</t>
+  </si>
+  <si>
+    <t>Just listing the digits after the decimal place is not what we want.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -201,7 +202,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -378,7 +379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -386,20 +387,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E15"/>
+  <dimension ref="B5:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -407,85 +408,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
       <c r="D6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="15">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
       <c r="D7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="15">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
       <c r="D8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="15">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
       <c r="D9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="15">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
       <c r="D10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="15">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
       <c r="D11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="15">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
       <c r="D12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="30">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
       <c r="D13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="15">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15">
         <f>SUM(C12+C11+C6+C7+C8+C10+C9+C13+C14)</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <f>SUM(D6+D7+D8+D9+D10+D11+D12+D13)</f>
@@ -493,11 +524,16 @@
       </c>
       <c r="E15">
         <f>C15/D15</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>